--- a/level-2/leetcode/phase-2-linear-data-structures-1/leetcode-phase-2-linear-data-structures-1.xlsx
+++ b/level-2/leetcode/phase-2-linear-data-structures-1/leetcode-phase-2-linear-data-structures-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAF672-C499-49F7-B9EB-EBC41A8D89A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC42F91A-4DEC-4CA8-BB66-B7A683B85C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J975)</f>
+        <f>COUNTA(J4:J855)</f>
         <v>200</v>
       </c>
     </row>
@@ -5581,101 +5581,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J152" r:id="rId1" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
     <hyperlink ref="J153" r:id="rId2" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>

--- a/level-2/leetcode/phase-2-linear-data-structures-1/leetcode-phase-2-linear-data-structures-1.xlsx
+++ b/level-2/leetcode/phase-2-linear-data-structures-1/leetcode-phase-2-linear-data-structures-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC42F91A-4DEC-4CA8-BB66-B7A683B85C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A79336-32D0-4B4F-91CD-47C34D667BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="228">
   <si>
     <t>Problem Link</t>
   </si>
@@ -682,6 +682,36 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/delivering-boxes-from-storage-to-ports/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-in-between-linked-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-an-unsorted-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swapping-nodes-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-node-in-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-components/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers-ii/</t>
   </si>
 </sst>
 </file>
@@ -915,141 +945,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1383,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1450,7 +1346,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C186)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
@@ -1474,12 +1370,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>COUNTA(I4:I855)</f>
+        <f>COUNTA(I4:I865)</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J855)</f>
-        <v>200</v>
+        <f>COUNTA(J4:J865)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4124,7 +4020,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
-        <f t="shared" ref="H132:H163" si="5">SUM(C132:G132)</f>
+        <f t="shared" ref="H132:H173" si="5">SUM(C132:G132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="11" t="s">
@@ -4233,10 +4129,10 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -4244,19 +4140,19 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C138:G138)</f>
         <v>0</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -4264,19 +4160,19 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C139:G139)</f>
         <v>0</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -4284,19 +4180,19 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C140:G140)</f>
         <v>0</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -4304,19 +4200,19 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C141:G141)</f>
         <v>0</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -4324,19 +4220,19 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C142:G142)</f>
         <v>0</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -4344,19 +4240,19 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C143:G143)</f>
         <v>0</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -4364,19 +4260,19 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C144:G144)</f>
         <v>0</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -4384,19 +4280,19 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C145:G145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -4404,19 +4300,19 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C146:G146)</f>
         <v>0</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -4424,11 +4320,11 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="7">
-        <f t="shared" si="5"/>
+        <f>SUM(C147:G147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4448,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4468,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4488,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4508,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4528,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4536,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -4548,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4556,7 +4452,7 @@
         <v>14</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -4568,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4576,7 +4472,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -4588,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4596,7 +4492,7 @@
         <v>14</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -4608,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,7 +4512,7 @@
         <v>14</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -4628,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4636,7 +4532,7 @@
         <v>14</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -4648,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4656,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -4668,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4676,7 +4572,7 @@
         <v>14</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -4688,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4696,7 +4592,7 @@
         <v>14</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -4708,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4716,7 +4612,7 @@
         <v>14</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -4728,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4748,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4764,11 +4660,11 @@
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="7">
-        <f t="shared" ref="H164:H195" si="6">SUM(C164:G164)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4784,11 +4680,11 @@
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4804,11 +4700,11 @@
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4824,11 +4720,11 @@
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J167" s="11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4844,11 +4740,11 @@
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4864,11 +4760,11 @@
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4884,11 +4780,11 @@
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4904,11 +4800,11 @@
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4924,11 +4820,11 @@
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4944,11 +4840,11 @@
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4964,11 +4860,11 @@
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H174:H205" si="6">SUM(C174:G174)</f>
         <v>0</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4988,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="11" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5008,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="11" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5028,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5048,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5068,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="11" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5088,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5108,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5128,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5148,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5168,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5188,12 +5084,12 @@
         <v>0</v>
       </c>
       <c r="J185" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>2</v>
@@ -5208,12 +5104,12 @@
         <v>0</v>
       </c>
       <c r="J186" s="11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>2</v>
@@ -5228,12 +5124,12 @@
         <v>0</v>
       </c>
       <c r="J187" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>2</v>
@@ -5248,12 +5144,12 @@
         <v>0</v>
       </c>
       <c r="J188" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>2</v>
@@ -5268,12 +5164,12 @@
         <v>0</v>
       </c>
       <c r="J189" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>2</v>
@@ -5288,12 +5184,12 @@
         <v>0</v>
       </c>
       <c r="J190" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>2</v>
@@ -5308,12 +5204,12 @@
         <v>0</v>
       </c>
       <c r="J191" s="11" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>2</v>
@@ -5328,12 +5224,12 @@
         <v>0</v>
       </c>
       <c r="J192" s="11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>2</v>
@@ -5348,12 +5244,12 @@
         <v>0</v>
       </c>
       <c r="J193" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>2</v>
@@ -5368,15 +5264,15 @@
         <v>0</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -5388,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5396,7 +5292,7 @@
         <v>15</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
@@ -5404,11 +5300,11 @@
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="7">
-        <f t="shared" ref="H196:H203" si="7">SUM(C196:G196)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5416,7 +5312,7 @@
         <v>15</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
@@ -5424,16 +5320,16 @@
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J197" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>2</v>
@@ -5444,16 +5340,16 @@
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
       <c r="H198" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J198" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>2</v>
@@ -5464,16 +5360,16 @@
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>2</v>
@@ -5484,16 +5380,16 @@
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
       <c r="H200" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J200" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>2</v>
@@ -5504,19 +5400,19 @@
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J201" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -5524,19 +5420,19 @@
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
       <c r="H202" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J202" s="11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -5544,29 +5440,229 @@
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
       <c r="H203" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="7">
+        <f t="shared" ref="H206:H213" si="7">SUM(C206:G206)</f>
+        <v>0</v>
+      </c>
+      <c r="J206" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J203" s="11" t="s">
+      <c r="J207" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J208" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J209" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J211" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+      <c r="H212" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J212" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J213" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H204" s="7"/>
-      <c r="J204" s="11"/>
-    </row>
-    <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H205" s="7"/>
-      <c r="J205" s="11"/>
-    </row>
-    <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J206" s="11"/>
-    </row>
-    <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J207" s="11"/>
-    </row>
-    <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J208" s="11"/>
+    <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H214" s="7"/>
+      <c r="J214" s="11"/>
+    </row>
+    <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H215" s="7"/>
+      <c r="J215" s="11"/>
+    </row>
+    <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J216" s="11"/>
+    </row>
+    <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J217" s="11"/>
+    </row>
+    <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J218" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5582,23 +5678,33 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J152" r:id="rId1" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
-    <hyperlink ref="J153" r:id="rId2" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>
-    <hyperlink ref="J154" r:id="rId3" xr:uid="{9F19E74B-47DD-4AA3-9DB6-27A59E528E67}"/>
-    <hyperlink ref="J155" r:id="rId4" xr:uid="{5D1F5EA9-1108-4B4E-95B3-19F49B9F2549}"/>
-    <hyperlink ref="J156" r:id="rId5" xr:uid="{381CB745-3BA9-4779-8654-2BFED9DFFC0A}"/>
-    <hyperlink ref="J157" r:id="rId6" xr:uid="{D4AE5FC6-09DA-42B6-8721-F9C5B8CAEC8A}"/>
-    <hyperlink ref="J158" r:id="rId7" xr:uid="{AC9025BA-64F1-495B-94AA-DFF19E87BC2F}"/>
-    <hyperlink ref="J159" r:id="rId8" xr:uid="{4BF2B810-74AD-411B-93C6-CEB308F9DC1C}"/>
-    <hyperlink ref="J160" r:id="rId9" xr:uid="{893C5263-5D51-4D79-AAAD-5649D2180F6C}"/>
-    <hyperlink ref="J161" r:id="rId10" xr:uid="{16D58146-1701-4C1A-B405-03E48257D927}"/>
-    <hyperlink ref="J162" r:id="rId11" xr:uid="{6D536E38-58DD-4022-87F7-35F22A95B854}"/>
-    <hyperlink ref="J163" r:id="rId12" xr:uid="{8D140D89-E687-4667-B95F-8754B36FD06F}"/>
-    <hyperlink ref="J164" r:id="rId13" xr:uid="{F24116DD-A25E-40FF-B6DB-1162F30D5B9A}"/>
-    <hyperlink ref="J165" r:id="rId14" xr:uid="{28E1431D-BC55-44BA-B398-9C674E9467C2}"/>
-    <hyperlink ref="J166" r:id="rId15" xr:uid="{34F1DAE6-2CA0-4285-A326-D9F5378EFE5F}"/>
+    <hyperlink ref="J162" r:id="rId1" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
+    <hyperlink ref="J163" r:id="rId2" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>
+    <hyperlink ref="J164" r:id="rId3" xr:uid="{9F19E74B-47DD-4AA3-9DB6-27A59E528E67}"/>
+    <hyperlink ref="J165" r:id="rId4" xr:uid="{5D1F5EA9-1108-4B4E-95B3-19F49B9F2549}"/>
+    <hyperlink ref="J166" r:id="rId5" xr:uid="{381CB745-3BA9-4779-8654-2BFED9DFFC0A}"/>
+    <hyperlink ref="J167" r:id="rId6" xr:uid="{D4AE5FC6-09DA-42B6-8721-F9C5B8CAEC8A}"/>
+    <hyperlink ref="J168" r:id="rId7" xr:uid="{AC9025BA-64F1-495B-94AA-DFF19E87BC2F}"/>
+    <hyperlink ref="J169" r:id="rId8" xr:uid="{4BF2B810-74AD-411B-93C6-CEB308F9DC1C}"/>
+    <hyperlink ref="J170" r:id="rId9" xr:uid="{893C5263-5D51-4D79-AAAD-5649D2180F6C}"/>
+    <hyperlink ref="J171" r:id="rId10" xr:uid="{16D58146-1701-4C1A-B405-03E48257D927}"/>
+    <hyperlink ref="J172" r:id="rId11" xr:uid="{6D536E38-58DD-4022-87F7-35F22A95B854}"/>
+    <hyperlink ref="J173" r:id="rId12" xr:uid="{8D140D89-E687-4667-B95F-8754B36FD06F}"/>
+    <hyperlink ref="J174" r:id="rId13" xr:uid="{F24116DD-A25E-40FF-B6DB-1162F30D5B9A}"/>
+    <hyperlink ref="J175" r:id="rId14" xr:uid="{28E1431D-BC55-44BA-B398-9C674E9467C2}"/>
+    <hyperlink ref="J176" r:id="rId15" xr:uid="{34F1DAE6-2CA0-4285-A326-D9F5378EFE5F}"/>
+    <hyperlink ref="J138" r:id="rId16" display="https://leetcode.com/problems/score-of-parentheses/" xr:uid="{A16CB244-2C9A-44ED-8CF4-B43B32BF78A7}"/>
+    <hyperlink ref="J139" r:id="rId17" display="https://leetcode.com/problems/validate-stack-sequences/" xr:uid="{92F05CF3-A6D6-4F65-BDA1-30E31135519E}"/>
+    <hyperlink ref="J140" r:id="rId18" display="https://leetcode.com/problems/reverse-substrings-between-each-pair-of-parentheses/" xr:uid="{99862309-B13E-4AB0-96EF-34697590E00E}"/>
+    <hyperlink ref="J141" r:id="rId19" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{06EBE3E6-68F4-430B-A556-29FC5A8F0BA1}"/>
+    <hyperlink ref="J142" r:id="rId20" display="https://leetcode.com/problems/online-stock-span/" xr:uid="{D7545CF8-4683-4D7A-8941-B897FED83929}"/>
+    <hyperlink ref="J143" r:id="rId21" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{75EF269A-86BD-4D70-B783-1A82C13859AD}"/>
+    <hyperlink ref="J144" r:id="rId22" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/" xr:uid="{65620C09-F18B-41C6-8F8D-F69B97014489}"/>
+    <hyperlink ref="J145" r:id="rId23" display="https://leetcode.com/problems/ternary-expression-parser/" xr:uid="{E05B65DB-65B4-4AF2-AB39-8AB36150A4AE}"/>
+    <hyperlink ref="J146" r:id="rId24" display="https://leetcode.com/problems/check-if-word-is-valid-after-substitutions/" xr:uid="{A3467DDB-8903-484D-B204-DB69D46EF057}"/>
+    <hyperlink ref="J147" r:id="rId25" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{7DE76DF7-B75B-4A0A-8359-9B619E361132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>